--- a/data_year/zb/金融业/保险系统机构、人员数/保险系统机构数.xlsx
+++ b/data_year/zb/金融业/保险系统机构、人员数/保险系统机构数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,827 +498,495 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53</v>
+      </c>
       <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>168</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5812</v>
+      </c>
       <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13176</v>
+      </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="I2" t="n">
-        <v>63</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1126</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2535</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45519</v>
+      </c>
       <c r="L2" t="n">
-        <v>33</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51</v>
+      </c>
       <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>360</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6378</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15710</v>
+      </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I3" t="n">
-        <v>72</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1259</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2506</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43413</v>
+      </c>
       <c r="L3" t="n">
-        <v>35</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>52</v>
+      </c>
       <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7377</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18353</v>
+      </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I4" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1644</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2410</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42973</v>
+      </c>
       <c r="L4" t="n">
-        <v>44</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>164</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55</v>
+      </c>
       <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>224</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7863</v>
+      </c>
       <c r="F5" t="n">
+        <v>109</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20334</v>
+      </c>
+      <c r="H5" t="n">
+        <v>109</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42077</v>
+      </c>
+      <c r="L5" t="n">
+        <v>174</v>
+      </c>
+      <c r="M5" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>26</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>62</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="E6" t="n">
-        <v>1505</v>
+        <v>8117</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>3914</v>
+        <v>21861</v>
       </c>
       <c r="H6" t="n">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I6" t="n">
-        <v>568</v>
+        <v>1490</v>
       </c>
       <c r="J6" t="n">
-        <v>1703</v>
+        <v>2343</v>
       </c>
       <c r="K6" t="n">
-        <v>215855</v>
+        <v>41240</v>
       </c>
       <c r="L6" t="n">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="E7" t="n">
-        <v>2740</v>
+        <v>8585</v>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G7" t="n">
-        <v>6899</v>
+        <v>23877</v>
       </c>
       <c r="H7" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I7" t="n">
-        <v>572</v>
+        <v>1558</v>
       </c>
       <c r="J7" t="n">
-        <v>2674</v>
+        <v>2380</v>
       </c>
       <c r="K7" t="n">
-        <v>29041</v>
+        <v>40911</v>
       </c>
       <c r="L7" t="n">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="E8" t="n">
-        <v>3121</v>
+        <v>8880</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="G8" t="n">
-        <v>7473</v>
+        <v>25788</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="I8" t="n">
-        <v>669</v>
+        <v>1605</v>
       </c>
       <c r="J8" t="n">
-        <v>2728</v>
+        <v>2370</v>
       </c>
       <c r="K8" t="n">
-        <v>34431</v>
+        <v>40760</v>
       </c>
       <c r="L8" t="n">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>354</v>
       </c>
       <c r="E9" t="n">
-        <v>3835</v>
+        <v>9322</v>
       </c>
       <c r="F9" t="n">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="G9" t="n">
-        <v>9251</v>
+        <v>26824</v>
       </c>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I9" t="n">
-        <v>851</v>
+        <v>1701</v>
       </c>
       <c r="J9" t="n">
-        <v>3082</v>
+        <v>2407</v>
       </c>
       <c r="K9" t="n">
-        <v>39794</v>
+        <v>40741</v>
       </c>
       <c r="L9" t="n">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>374</v>
       </c>
       <c r="E10" t="n">
-        <v>5224</v>
+        <v>10474</v>
       </c>
       <c r="F10" t="n">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="G10" t="n">
-        <v>10348</v>
+        <v>28480</v>
       </c>
       <c r="H10" t="n">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="I10" t="n">
-        <v>1055</v>
+        <v>2152</v>
       </c>
       <c r="J10" t="n">
-        <v>2529</v>
+        <v>2491</v>
       </c>
       <c r="K10" t="n">
-        <v>43818</v>
+        <v>41734</v>
       </c>
       <c r="L10" t="n">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E11" t="n">
-        <v>5671</v>
+        <v>10033</v>
       </c>
       <c r="F11" t="n">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="G11" t="n">
-        <v>11813</v>
+        <v>29200</v>
       </c>
       <c r="H11" t="n">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="I11" t="n">
-        <v>1058</v>
+        <v>1928</v>
       </c>
       <c r="J11" t="n">
-        <v>2771</v>
+        <v>2293</v>
       </c>
       <c r="K11" t="n">
-        <v>45701</v>
+        <v>40169</v>
       </c>
       <c r="L11" t="n">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>53</v>
-      </c>
-      <c r="C12" t="n">
-        <v>53</v>
-      </c>
-      <c r="D12" t="n">
-        <v>168</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5812</v>
-      </c>
-      <c r="F12" t="n">
-        <v>81</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13176</v>
-      </c>
-      <c r="H12" t="n">
-        <v>81</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1126</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2535</v>
-      </c>
-      <c r="K12" t="n">
-        <v>45519</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>142</v>
-      </c>
-      <c r="M12" t="n">
-        <v>8</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>51</v>
-      </c>
-      <c r="C13" t="n">
-        <v>51</v>
-      </c>
-      <c r="D13" t="n">
-        <v>360</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6378</v>
-      </c>
-      <c r="F13" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15710</v>
-      </c>
-      <c r="H13" t="n">
-        <v>90</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1259</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2506</v>
-      </c>
-      <c r="K13" t="n">
-        <v>43413</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>152</v>
-      </c>
-      <c r="M13" t="n">
-        <v>10</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>52</v>
-      </c>
-      <c r="C14" t="n">
-        <v>52</v>
-      </c>
-      <c r="D14" t="n">
-        <v>212</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7377</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18353</v>
-      </c>
-      <c r="H14" t="n">
-        <v>101</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1644</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2410</v>
-      </c>
-      <c r="K14" t="n">
-        <v>42973</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>164</v>
-      </c>
-      <c r="M14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>55</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55</v>
-      </c>
-      <c r="D15" t="n">
-        <v>224</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7863</v>
-      </c>
-      <c r="F15" t="n">
-        <v>109</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20334</v>
-      </c>
-      <c r="H15" t="n">
-        <v>109</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1476</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2382</v>
-      </c>
-      <c r="K15" t="n">
-        <v>42077</v>
-      </c>
-      <c r="L15" t="n">
-        <v>174</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>57</v>
-      </c>
-      <c r="C16" t="n">
-        <v>57</v>
-      </c>
-      <c r="D16" t="n">
-        <v>276</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8117</v>
-      </c>
-      <c r="F16" t="n">
-        <v>113</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21861</v>
-      </c>
-      <c r="H16" t="n">
-        <v>113</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1490</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2343</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41240</v>
-      </c>
-      <c r="L16" t="n">
-        <v>180</v>
-      </c>
-      <c r="M16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>57</v>
-      </c>
-      <c r="C17" t="n">
-        <v>57</v>
-      </c>
-      <c r="D17" t="n">
-        <v>304</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8585</v>
-      </c>
-      <c r="F17" t="n">
-        <v>126</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23877</v>
-      </c>
-      <c r="H17" t="n">
-        <v>126</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1558</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2380</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40911</v>
-      </c>
-      <c r="L17" t="n">
-        <v>194</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>57</v>
-      </c>
-      <c r="C18" t="n">
-        <v>57</v>
-      </c>
-      <c r="D18" t="n">
-        <v>327</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8880</v>
-      </c>
-      <c r="F18" t="n">
-        <v>135</v>
-      </c>
-      <c r="G18" t="n">
-        <v>25788</v>
-      </c>
-      <c r="H18" t="n">
-        <v>135</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1605</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2370</v>
-      </c>
-      <c r="K18" t="n">
-        <v>40760</v>
-      </c>
-      <c r="L18" t="n">
-        <v>203</v>
-      </c>
-      <c r="M18" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>57</v>
-      </c>
-      <c r="C19" t="n">
-        <v>57</v>
-      </c>
-      <c r="D19" t="n">
-        <v>354</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9322</v>
-      </c>
-      <c r="F19" t="n">
-        <v>145</v>
-      </c>
-      <c r="G19" t="n">
-        <v>26824</v>
-      </c>
-      <c r="H19" t="n">
-        <v>145</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1701</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2407</v>
-      </c>
-      <c r="K19" t="n">
-        <v>40741</v>
-      </c>
-      <c r="L19" t="n">
-        <v>222</v>
-      </c>
-      <c r="M19" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>59</v>
-      </c>
-      <c r="C20" t="n">
-        <v>59</v>
-      </c>
-      <c r="D20" t="n">
-        <v>374</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10474</v>
-      </c>
-      <c r="F20" t="n">
-        <v>158</v>
-      </c>
-      <c r="G20" t="n">
-        <v>28480</v>
-      </c>
-      <c r="H20" t="n">
-        <v>158</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2152</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2491</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41734</v>
-      </c>
-      <c r="L20" t="n">
-        <v>229</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>61</v>
-      </c>
-      <c r="C21" t="n">
-        <v>61</v>
-      </c>
-      <c r="D21" t="n">
-        <v>400</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10033</v>
-      </c>
-      <c r="F21" t="n">
-        <v>160</v>
-      </c>
-      <c r="G21" t="n">
-        <v>29200</v>
-      </c>
-      <c r="H21" t="n">
-        <v>160</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2293</v>
-      </c>
-      <c r="K21" t="n">
-        <v>40169</v>
-      </c>
-      <c r="L21" t="n">
-        <v>235</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>238</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>237</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
